--- a/week10/iris.xlsx
+++ b/week10/iris.xlsx
@@ -1,37 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>sepal length (cm)</t>
+  </si>
+  <si>
+    <t>sepal width (cm)</t>
+  </si>
+  <si>
+    <t>petal length (cm)</t>
+  </si>
+  <si>
+    <t>petal width (cm)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +66,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2142 +382,2128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sepal length (cm)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sepal width (cm)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>petal length (cm)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>petal width (cm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>5.1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>4.9</v>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>1.4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>4.7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4.6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.4</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>5.4</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>4.6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.5</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>4.4</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.4</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>4.9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>5.4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.5</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>4.8</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.6</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>4.8</v>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>1.4</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>4.3</v>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>1.1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>5.8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.2</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>5.7</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4.4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.5</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>5.4</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.9</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.3</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>5.1</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.4</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>5.7</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3.8</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.7</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>5.1</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.8</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>5.4</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3.4</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.7</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>5.1</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.5</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>4.6</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.6</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>5.1</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3.3</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>4.8</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3.4</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.9</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>1.6</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3.4</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.6</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>5.2</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.5</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>5.2</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>3.4</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.4</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>4.7</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>3.2</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.6</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>4.8</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3.1</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.6</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>5.4</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>3.4</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>5.2</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4.1</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.5</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>5.5</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>4.2</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.4</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>4.9</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>3.1</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.5</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="D36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>3.2</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.2</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>5.5</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>3.5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.3</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>4.9</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3.6</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.4</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>4.4</v>
       </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
         <v>1.3</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>5.1</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3.4</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3.5</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.3</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>4.5</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.3</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.3</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>4.4</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3.2</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.3</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3.5</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.6</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>5.1</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>3.8</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.9</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.4</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47">
         <v>4.8</v>
       </c>
-      <c r="B47" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
         <v>1.4</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48">
         <v>5.1</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>3.8</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.6</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>4.6</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>3.2</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.4</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
         <v>5.3</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>3.7</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1.5</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3.3</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1.4</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
         <v>7</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>3.2</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.7</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53">
         <v>6.4</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>3.2</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.5</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54">
         <v>6.9</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>3.1</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>4.9</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55">
         <v>5.5</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2.3</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1.3</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56">
         <v>6.5</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>2.8</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>4.6</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57">
         <v>5.7</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>2.8</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>4.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1.3</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58">
         <v>6.3</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>3.3</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>4.7</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1.6</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59">
         <v>4.9</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>2.4</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3.3</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60">
         <v>6.6</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>2.9</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>4.6</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1.3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61">
         <v>5.2</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2.7</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>3.9</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1.4</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62">
         <v>5</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3.5</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63">
         <v>5.9</v>
       </c>
-      <c r="B63" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
         <v>4.2</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2.2</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65">
         <v>6.1</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2.9</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>4.7</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1.4</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66">
         <v>5.6</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2.9</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3.6</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>1.3</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67">
         <v>6.7</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>3.1</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>4.4</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1.4</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>5.6</v>
       </c>
-      <c r="B68" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
         <v>4.5</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1.5</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69">
         <v>5.8</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2.7</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>4.1</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70">
         <v>6.2</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2.2</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>4.5</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71">
         <v>5.6</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2.5</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3.9</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1.1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72">
         <v>5.9</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>3.2</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>4.8</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.8</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>6.1</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2.8</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>1.3</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74">
         <v>6.3</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2.5</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>4.9</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>1.5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>6.1</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2.8</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>4.7</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>1.2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76">
         <v>6.4</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2.9</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>4.3</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1.3</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77">
         <v>6.6</v>
       </c>
-      <c r="B77" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
         <v>4.4</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>1.4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78">
         <v>6.8</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2.8</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>4.8</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>1.4</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79">
         <v>6.7</v>
       </c>
-      <c r="B79" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>1.7</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80">
         <v>6</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2.9</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>4.5</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81">
         <v>5.7</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2.6</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>3.5</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82">
         <v>5.5</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2.4</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>3.8</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>1.1</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83">
         <v>5.5</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2.4</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>3.7</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84">
         <v>5.8</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2.7</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.9</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>1.2</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85">
         <v>6</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2.7</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.1</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>1.6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86">
         <v>5.4</v>
       </c>
-      <c r="B86" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
         <v>4.5</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>1.5</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87">
         <v>6</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>3.4</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1.6</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88">
         <v>6.7</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>3.1</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>4.7</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>1.5</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89">
         <v>6.3</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2.3</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.4</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>1.3</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90">
         <v>5.6</v>
       </c>
-      <c r="B90" t="n">
-        <v>3</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
         <v>4.1</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>1.3</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91">
         <v>5.5</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2.5</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>1.3</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92">
         <v>5.5</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2.6</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>4.4</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>1.2</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93">
         <v>6.1</v>
       </c>
-      <c r="B93" t="n">
-        <v>3</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
         <v>4.6</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>1.4</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94">
         <v>5.8</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2.6</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>4</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>1.2</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95">
         <v>5</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2.3</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>3.3</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>1</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96">
         <v>5.6</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2.7</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>4.2</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>1.3</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97">
         <v>5.7</v>
       </c>
-      <c r="B97" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
         <v>4.2</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>1.2</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98">
         <v>5.7</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2.9</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>4.2</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>1.3</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99">
         <v>6.2</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2.9</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>4.3</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>1.3</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100">
         <v>5.1</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2.5</v>
       </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
         <v>1.1</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101">
         <v>5.7</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2.8</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>4.1</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>1.3</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>6.3</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>3.3</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>6</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>2.5</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103">
         <v>5.8</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2.7</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>5.1</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>1.9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104">
         <v>7.1</v>
       </c>
-      <c r="B104" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
         <v>5.9</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>2.1</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105">
         <v>6.3</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2.9</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>5.6</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>1.8</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106">
         <v>6.5</v>
       </c>
-      <c r="B106" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
         <v>5.8</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>2.2</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107">
         <v>7.6</v>
       </c>
-      <c r="B107" t="n">
-        <v>3</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
         <v>6.6</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>2.1</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108">
         <v>4.9</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2.5</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>4.5</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>1.7</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109">
         <v>7.3</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2.9</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>6.3</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>1.8</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110">
         <v>6.7</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2.5</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>5.8</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>1.8</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111">
         <v>7.2</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>3.6</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>6.1</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>2.5</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112">
         <v>6.5</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>3.2</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>5.1</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>2</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113">
         <v>6.4</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2.7</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>5.3</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>1.9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114">
         <v>6.8</v>
       </c>
-      <c r="B114" t="n">
-        <v>3</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
         <v>5.5</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>2.1</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115">
         <v>5.7</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2.5</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>5</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>2</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116">
         <v>5.8</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2.8</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>5.1</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>2.4</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117">
         <v>6.4</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>3.2</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>5.3</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>2.3</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118">
         <v>6.5</v>
       </c>
-      <c r="B118" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
         <v>5.5</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>1.8</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119">
         <v>7.7</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>3.8</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>6.7</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>2.2</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120">
         <v>7.7</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2.6</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>6.9</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>2.3</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121">
         <v>6</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2.2</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>5</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>1.5</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122">
         <v>6.9</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>3.2</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>5.7</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>2.3</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123">
         <v>5.6</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>2.8</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>4.9</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>2</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124">
         <v>7.7</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>2.8</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>6.7</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>2</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125">
         <v>6.3</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>2.7</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>4.9</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>1.8</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126">
         <v>6.7</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>3.3</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>5.7</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>2.1</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127">
         <v>7.2</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>3.2</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>6</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>1.8</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128">
         <v>6.2</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>2.8</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>4.8</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>1.8</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129">
         <v>6.1</v>
       </c>
-      <c r="B129" t="n">
-        <v>3</v>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
         <v>4.9</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>1.8</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>6.4</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>2.8</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>5.6</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>2.1</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131">
         <v>7.2</v>
       </c>
-      <c r="B131" t="n">
-        <v>3</v>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
         <v>5.8</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>1.6</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132">
         <v>7.4</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>2.8</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>6.1</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>1.9</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133">
         <v>7.9</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>3.8</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>6.4</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>2</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134">
         <v>6.4</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>2.8</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>5.6</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>2.2</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135">
         <v>6.3</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>2.8</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>5.1</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>1.5</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136">
         <v>6.1</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>2.6</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>5.6</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>1.4</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137">
         <v>7.7</v>
       </c>
-      <c r="B137" t="n">
-        <v>3</v>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
         <v>6.1</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>2.3</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138">
         <v>6.3</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>3.4</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>5.6</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>2.4</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139">
         <v>6.4</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>3.1</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>5.5</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>1.8</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140">
         <v>6</v>
       </c>
-      <c r="B140" t="n">
-        <v>3</v>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
         <v>4.8</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>1.8</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141">
         <v>6.9</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>3.1</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>5.4</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>2.1</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142">
         <v>6.7</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>3.1</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>5.6</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>2.4</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143">
         <v>6.9</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>3.1</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>5.1</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>2.3</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144">
         <v>5.8</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>2.7</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>5.1</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>1.9</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145">
         <v>6.8</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>3.2</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>5.9</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>2.3</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146">
         <v>6.7</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>3.3</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>5.7</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>2.5</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147">
         <v>6.7</v>
       </c>
-      <c r="B147" t="n">
-        <v>3</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
         <v>5.2</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>2.3</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148">
         <v>6.3</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>2.5</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>5</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>1.9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149">
         <v>6.5</v>
       </c>
-      <c r="B149" t="n">
-        <v>3</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
         <v>5.2</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>2</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150">
         <v>6.2</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>3.4</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>5.4</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>2.3</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151">
         <v>5.9</v>
       </c>
-      <c r="B151" t="n">
-        <v>3</v>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
         <v>5.1</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>1.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>